--- a/Data/IPCA_SWAP_bbg.xlsx
+++ b/Data/IPCA_SWAP_bbg.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="13395" windowHeight="8760"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="13395" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="4" r:id="rId2"/>
+    <sheet name="3" sheetId="5" r:id="rId2"/>
+    <sheet name="2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="7">
   <si>
     <t>BZPIIPCM Index</t>
   </si>
@@ -33,6 +34,9 @@
   </si>
   <si>
     <t>WLA Index</t>
+  </si>
+  <si>
+    <t>BZPIIPYO Index</t>
   </si>
 </sst>
 </file>
@@ -83,6 +87,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="bloomberg.rtd">
+      <tp>
+        <v>42065</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>WLA Index</stp>
+        <stp>PX_LAST</stp>
+        <stp>1/1/2000</stp>
+        <stp/>
+        <stp>[IPCA_SWAP_bbg.xlsx]2!R2C1</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=S</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=T</stp>
+        <stp>Per=cd</stp>
+        <stp>DtFmt=D</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>CshAdjNormal=N</stp>
+        <stp>CshAdjAbnormal=N</stp>
+        <stp>CapChg=N</stp>
+        <stp>cols=2;rows=733</stp>
+        <tr r="A2" s="4"/>
+      </tp>
+      <tp>
+        <v>36556</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>BZPIIPCM Index</stp>
+        <stp>PX_LAST_x0002_BN_SURVEY_MEDIAN_x0002_ECO_RELEASE_DT</stp>
+        <stp>1/1/2000</stp>
+        <stp/>
+        <stp>[IPCA_SWAP_bbg.xlsx]1!R2C1</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=S</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=T</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>CshAdjNormal=N</stp>
+        <stp>CshAdjAbnormal=N</stp>
+        <stp>CapChg=N</stp>
+        <stp>cols=4;rows=218</stp>
+        <tr r="A2" s="1"/>
+      </tp>
+      <tp>
+        <v>36556</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>BZPIIPYO Index</stp>
+        <stp>PX_LAST_x0002_BN_SURVEY_MEDIAN_x0002_ECO_RELEASE_DT</stp>
+        <stp>1/1/2000</stp>
+        <stp/>
+        <stp>[IPCA_SWAP_bbg.xlsx]3!R2C1</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=S</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=T</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>CshAdjNormal=N</stp>
+        <stp>CshAdjAbnormal=N</stp>
+        <stp>CapChg=N</stp>
+        <stp>cols=4;rows=218</stp>
+        <tr r="A2" s="5"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,7 +459,3090 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>_xll.BDH($A$1,$B$1:$D$1,"1/1/2000","","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cm","DtFmt=D","UseDPDF=Y","CshAdjNormal=N","CshAdjAbnormal=N","CapChg=N","cols=4;rows=218")</f>
+        <v>36556</v>
+      </c>
+      <c r="B2">
+        <v>0.62</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <v>20000210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>36585</v>
+      </c>
+      <c r="B3">
+        <v>0.13</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>20000314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>36616</v>
+      </c>
+      <c r="B4">
+        <v>0.22</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>20000411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>36646</v>
+      </c>
+      <c r="B5">
+        <v>0.42</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>20000512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>36677</v>
+      </c>
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>20000609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>36707</v>
+      </c>
+      <c r="B7">
+        <v>0.23</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>20000712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>36738</v>
+      </c>
+      <c r="B8">
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="D8">
+        <v>20000810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>36769</v>
+      </c>
+      <c r="B9">
+        <v>1.31</v>
+      </c>
+      <c r="C9">
+        <v>1.3</v>
+      </c>
+      <c r="D9">
+        <v>20000912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>36799</v>
+      </c>
+      <c r="B10">
+        <v>0.23</v>
+      </c>
+      <c r="C10">
+        <v>0.27</v>
+      </c>
+      <c r="D10">
+        <v>20001011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>36830</v>
+      </c>
+      <c r="B11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>20001110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>36860</v>
+      </c>
+      <c r="B12">
+        <v>0.32</v>
+      </c>
+      <c r="C12">
+        <v>0.35</v>
+      </c>
+      <c r="D12">
+        <v>20001212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>36891</v>
+      </c>
+      <c r="B13">
+        <v>0.59</v>
+      </c>
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13">
+        <v>20010112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>36922</v>
+      </c>
+      <c r="B14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>20010209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>36950</v>
+      </c>
+      <c r="B15">
+        <v>0.46</v>
+      </c>
+      <c r="C15">
+        <v>0.34</v>
+      </c>
+      <c r="D15">
+        <v>20010314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>36981</v>
+      </c>
+      <c r="B16">
+        <v>0.38</v>
+      </c>
+      <c r="C16">
+        <v>0.37</v>
+      </c>
+      <c r="D16">
+        <v>20010411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>37011</v>
+      </c>
+      <c r="B17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>20010511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>37042</v>
+      </c>
+      <c r="B18">
+        <v>0.41</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>20010612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>37072</v>
+      </c>
+      <c r="B19">
+        <v>0.52</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>20010713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>37103</v>
+      </c>
+      <c r="B20">
+        <v>1.33</v>
+      </c>
+      <c r="C20">
+        <v>1.2</v>
+      </c>
+      <c r="D20">
+        <v>20010810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>37134</v>
+      </c>
+      <c r="B21">
+        <v>0.7</v>
+      </c>
+      <c r="C21">
+        <v>0.7</v>
+      </c>
+      <c r="D21">
+        <v>20010912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>37164</v>
+      </c>
+      <c r="B22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+      <c r="D22">
+        <v>20011010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>37195</v>
+      </c>
+      <c r="B23">
+        <v>0.83</v>
+      </c>
+      <c r="C23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D23">
+        <v>20011109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>37225</v>
+      </c>
+      <c r="B24">
+        <v>0.71</v>
+      </c>
+      <c r="C24">
+        <v>0.78</v>
+      </c>
+      <c r="D24">
+        <v>20011212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>37256</v>
+      </c>
+      <c r="B25">
+        <v>0.65</v>
+      </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
+      <c r="D25">
+        <v>20020111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>37287</v>
+      </c>
+      <c r="B26">
+        <v>0.52</v>
+      </c>
+      <c r="C26">
+        <v>0.49</v>
+      </c>
+      <c r="D26">
+        <v>20020208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>37315</v>
+      </c>
+      <c r="B27">
+        <v>0.36</v>
+      </c>
+      <c r="C27">
+        <v>0.34</v>
+      </c>
+      <c r="D27">
+        <v>20020312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>37346</v>
+      </c>
+      <c r="B28">
+        <v>0.6</v>
+      </c>
+      <c r="C28">
+        <v>0.46</v>
+      </c>
+      <c r="D28">
+        <v>20020410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>37376</v>
+      </c>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29">
+        <v>0.85</v>
+      </c>
+      <c r="D29">
+        <v>20020510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>37407</v>
+      </c>
+      <c r="B30">
+        <v>0.21</v>
+      </c>
+      <c r="C30">
+        <v>0.3</v>
+      </c>
+      <c r="D30">
+        <v>20020612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>37437</v>
+      </c>
+      <c r="B31">
+        <v>0.42</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>20020710</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>37468</v>
+      </c>
+      <c r="B32">
+        <v>1.19</v>
+      </c>
+      <c r="C32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D32">
+        <v>20020809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>37499</v>
+      </c>
+      <c r="B33">
+        <v>0.65</v>
+      </c>
+      <c r="C33">
+        <v>0.68</v>
+      </c>
+      <c r="D33">
+        <v>20020910</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>37529</v>
+      </c>
+      <c r="B34">
+        <v>0.72</v>
+      </c>
+      <c r="C34">
+        <v>0.65</v>
+      </c>
+      <c r="D34">
+        <v>20021009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>37560</v>
+      </c>
+      <c r="B35">
+        <v>1.31</v>
+      </c>
+      <c r="C35">
+        <v>1.2</v>
+      </c>
+      <c r="D35">
+        <v>20021112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>37590</v>
+      </c>
+      <c r="B36">
+        <v>3.02</v>
+      </c>
+      <c r="C36">
+        <v>2.75</v>
+      </c>
+      <c r="D36">
+        <v>20021206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37621</v>
+      </c>
+      <c r="B37">
+        <v>2.1</v>
+      </c>
+      <c r="C37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D37">
+        <v>20030110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37652</v>
+      </c>
+      <c r="B38">
+        <v>2.25</v>
+      </c>
+      <c r="C38">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D38">
+        <v>20030212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37680</v>
+      </c>
+      <c r="B39">
+        <v>1.5699999999999998</v>
+      </c>
+      <c r="C39">
+        <v>1.65</v>
+      </c>
+      <c r="D39">
+        <v>20030314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37711</v>
+      </c>
+      <c r="B40">
+        <v>1.23</v>
+      </c>
+      <c r="C40">
+        <v>0.9</v>
+      </c>
+      <c r="D40">
+        <v>20030410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>37741</v>
+      </c>
+      <c r="B41">
+        <v>0.97</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>20030513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>37772</v>
+      </c>
+      <c r="B42">
+        <v>0.61</v>
+      </c>
+      <c r="C42">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D42">
+        <v>20030610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>37802</v>
+      </c>
+      <c r="B43">
+        <v>-0.15</v>
+      </c>
+      <c r="C43">
+        <v>-0.04</v>
+      </c>
+      <c r="D43">
+        <v>20030709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>37833</v>
+      </c>
+      <c r="B44">
+        <v>0.2</v>
+      </c>
+      <c r="C44">
+        <v>0.25</v>
+      </c>
+      <c r="D44">
+        <v>20030808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>37864</v>
+      </c>
+      <c r="B45">
+        <v>0.34</v>
+      </c>
+      <c r="C45">
+        <v>0.3</v>
+      </c>
+      <c r="D45">
+        <v>20030909</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>37894</v>
+      </c>
+      <c r="B46">
+        <v>0.78</v>
+      </c>
+      <c r="C46">
+        <v>0.7</v>
+      </c>
+      <c r="D46">
+        <v>20031009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>37925</v>
+      </c>
+      <c r="B47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.49</v>
+      </c>
+      <c r="D47">
+        <v>20031106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>37955</v>
+      </c>
+      <c r="B48">
+        <v>0.34</v>
+      </c>
+      <c r="C48">
+        <v>0.3</v>
+      </c>
+      <c r="D48">
+        <v>20031205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>37986</v>
+      </c>
+      <c r="B49">
+        <v>0.52</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>20040114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>38017</v>
+      </c>
+      <c r="B50">
+        <v>0.76</v>
+      </c>
+      <c r="C50">
+        <v>0.75</v>
+      </c>
+      <c r="D50">
+        <v>20040213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>38046</v>
+      </c>
+      <c r="B51">
+        <v>0.61</v>
+      </c>
+      <c r="C51">
+        <v>0.72</v>
+      </c>
+      <c r="D51">
+        <v>20040311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>38077</v>
+      </c>
+      <c r="B52">
+        <v>0.47</v>
+      </c>
+      <c r="C52">
+        <v>0.4</v>
+      </c>
+      <c r="D52">
+        <v>20040407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>38107</v>
+      </c>
+      <c r="B53">
+        <v>0.37</v>
+      </c>
+      <c r="C53">
+        <v>0.4</v>
+      </c>
+      <c r="D53">
+        <v>20040507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>38138</v>
+      </c>
+      <c r="B54">
+        <v>0.51</v>
+      </c>
+      <c r="C54">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D54">
+        <v>20040608</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>38168</v>
+      </c>
+      <c r="B55">
+        <v>0.71</v>
+      </c>
+      <c r="C55">
+        <v>0.69</v>
+      </c>
+      <c r="D55">
+        <v>20040709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>38199</v>
+      </c>
+      <c r="B56">
+        <v>0.91</v>
+      </c>
+      <c r="C56">
+        <v>0.95</v>
+      </c>
+      <c r="D56">
+        <v>20040811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>38230</v>
+      </c>
+      <c r="B57">
+        <v>0.69</v>
+      </c>
+      <c r="C57">
+        <v>0.64</v>
+      </c>
+      <c r="D57">
+        <v>20040910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>38260</v>
+      </c>
+      <c r="B58">
+        <v>0.33</v>
+      </c>
+      <c r="C58">
+        <v>0.44</v>
+      </c>
+      <c r="D58">
+        <v>20041008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>38291</v>
+      </c>
+      <c r="B59">
+        <v>0.44</v>
+      </c>
+      <c r="C59">
+        <v>0.45</v>
+      </c>
+      <c r="D59">
+        <v>20041111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>38321</v>
+      </c>
+      <c r="B60">
+        <v>0.69</v>
+      </c>
+      <c r="C60">
+        <v>0.65</v>
+      </c>
+      <c r="D60">
+        <v>20041208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>38352</v>
+      </c>
+      <c r="B61">
+        <v>0.86</v>
+      </c>
+      <c r="C61">
+        <v>0.75</v>
+      </c>
+      <c r="D61">
+        <v>20050114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>38383</v>
+      </c>
+      <c r="B62">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C62">
+        <v>0.59</v>
+      </c>
+      <c r="D62">
+        <v>20050214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>38411</v>
+      </c>
+      <c r="B63">
+        <v>0.59</v>
+      </c>
+      <c r="C63">
+        <v>0.6</v>
+      </c>
+      <c r="D63">
+        <v>20050311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>38442</v>
+      </c>
+      <c r="B64">
+        <v>0.61</v>
+      </c>
+      <c r="C64">
+        <v>0.6</v>
+      </c>
+      <c r="D64">
+        <v>20050408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>38472</v>
+      </c>
+      <c r="B65">
+        <v>0.87</v>
+      </c>
+      <c r="C65">
+        <v>0.82</v>
+      </c>
+      <c r="D65">
+        <v>20050511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>38503</v>
+      </c>
+      <c r="B66">
+        <v>0.49</v>
+      </c>
+      <c r="C66">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D66">
+        <v>20050610</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>38533</v>
+      </c>
+      <c r="B67">
+        <v>-0.02</v>
+      </c>
+      <c r="C67">
+        <v>0.06</v>
+      </c>
+      <c r="D67">
+        <v>20050708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>38564</v>
+      </c>
+      <c r="B68">
+        <v>0.25</v>
+      </c>
+      <c r="C68">
+        <v>0.25</v>
+      </c>
+      <c r="D68">
+        <v>20050809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>38595</v>
+      </c>
+      <c r="B69">
+        <v>0.17</v>
+      </c>
+      <c r="C69">
+        <v>0.17</v>
+      </c>
+      <c r="D69">
+        <v>20050906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>38625</v>
+      </c>
+      <c r="B70">
+        <v>0.35</v>
+      </c>
+      <c r="C70">
+        <v>0.35</v>
+      </c>
+      <c r="D70">
+        <v>20051007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>38656</v>
+      </c>
+      <c r="B71">
+        <v>0.75</v>
+      </c>
+      <c r="C71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D71">
+        <v>20051110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>38686</v>
+      </c>
+      <c r="B72">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C72">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D72">
+        <v>20051209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>38717</v>
+      </c>
+      <c r="B73">
+        <v>0.36</v>
+      </c>
+      <c r="C73">
+        <v>0.35</v>
+      </c>
+      <c r="D73">
+        <v>20060112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>38748</v>
+      </c>
+      <c r="B74">
+        <v>0.59</v>
+      </c>
+      <c r="C74">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D74">
+        <v>20060209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>38776</v>
+      </c>
+      <c r="B75">
+        <v>0.41</v>
+      </c>
+      <c r="C75">
+        <v>0.41</v>
+      </c>
+      <c r="D75">
+        <v>20060310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>38807</v>
+      </c>
+      <c r="B76">
+        <v>0.43</v>
+      </c>
+      <c r="C76">
+        <v>0.45</v>
+      </c>
+      <c r="D76">
+        <v>20060407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>38837</v>
+      </c>
+      <c r="B77">
+        <v>0.21</v>
+      </c>
+      <c r="C77">
+        <v>0.22</v>
+      </c>
+      <c r="D77">
+        <v>20060510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>38868</v>
+      </c>
+      <c r="B78">
+        <v>0.1</v>
+      </c>
+      <c r="C78">
+        <v>0.15</v>
+      </c>
+      <c r="D78">
+        <v>20060608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>38898</v>
+      </c>
+      <c r="B79">
+        <v>-0.21</v>
+      </c>
+      <c r="C79">
+        <v>-0.13</v>
+      </c>
+      <c r="D79">
+        <v>20060707</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>38929</v>
+      </c>
+      <c r="B80">
+        <v>0.19</v>
+      </c>
+      <c r="C80">
+        <v>0.16</v>
+      </c>
+      <c r="D80">
+        <v>20060811</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>38960</v>
+      </c>
+      <c r="B81">
+        <v>0.05</v>
+      </c>
+      <c r="C81">
+        <v>0.2</v>
+      </c>
+      <c r="D81">
+        <v>20060906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>38990</v>
+      </c>
+      <c r="B82">
+        <v>0.21</v>
+      </c>
+      <c r="C82">
+        <v>0.12</v>
+      </c>
+      <c r="D82">
+        <v>20061006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>39021</v>
+      </c>
+      <c r="B83">
+        <v>0.33</v>
+      </c>
+      <c r="C83">
+        <v>0.34</v>
+      </c>
+      <c r="D83">
+        <v>20061110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>39051</v>
+      </c>
+      <c r="B84">
+        <v>0.31</v>
+      </c>
+      <c r="C84">
+        <v>0.35</v>
+      </c>
+      <c r="D84">
+        <v>20061208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>39082</v>
+      </c>
+      <c r="B85">
+        <v>0.48</v>
+      </c>
+      <c r="C85">
+        <v>0.45</v>
+      </c>
+      <c r="D85">
+        <v>20070112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>39113</v>
+      </c>
+      <c r="B86">
+        <v>0.44</v>
+      </c>
+      <c r="C86">
+        <v>0.47</v>
+      </c>
+      <c r="D86">
+        <v>20070209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>39141</v>
+      </c>
+      <c r="B87">
+        <v>0.44</v>
+      </c>
+      <c r="C87">
+        <v>0.42</v>
+      </c>
+      <c r="D87">
+        <v>20070309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>39172</v>
+      </c>
+      <c r="B88">
+        <v>0.37</v>
+      </c>
+      <c r="C88">
+        <v>0.4</v>
+      </c>
+      <c r="D88">
+        <v>20070411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>39202</v>
+      </c>
+      <c r="B89">
+        <v>0.25</v>
+      </c>
+      <c r="C89">
+        <v>0.25</v>
+      </c>
+      <c r="D89">
+        <v>20070511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>39233</v>
+      </c>
+      <c r="B90">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C90">
+        <v>0.22</v>
+      </c>
+      <c r="D90">
+        <v>20070606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>39263</v>
+      </c>
+      <c r="B91">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C91">
+        <v>0.3</v>
+      </c>
+      <c r="D91">
+        <v>20070706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>39294</v>
+      </c>
+      <c r="B92">
+        <v>0.24</v>
+      </c>
+      <c r="C92">
+        <v>0.23</v>
+      </c>
+      <c r="D92">
+        <v>20070808</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>39325</v>
+      </c>
+      <c r="B93">
+        <v>0.47</v>
+      </c>
+      <c r="C93">
+        <v>0.46</v>
+      </c>
+      <c r="D93">
+        <v>20070906</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>39355</v>
+      </c>
+      <c r="B94">
+        <v>0.18</v>
+      </c>
+      <c r="C94">
+        <v>0.25</v>
+      </c>
+      <c r="D94">
+        <v>20071010</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>39386</v>
+      </c>
+      <c r="B95">
+        <v>0.3</v>
+      </c>
+      <c r="C95">
+        <v>0.2</v>
+      </c>
+      <c r="D95">
+        <v>20071107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>39416</v>
+      </c>
+      <c r="B96">
+        <v>0.38</v>
+      </c>
+      <c r="C96">
+        <v>0.3</v>
+      </c>
+      <c r="D96">
+        <v>20071206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>39447</v>
+      </c>
+      <c r="B97">
+        <v>0.74</v>
+      </c>
+      <c r="C97">
+        <v>0.75</v>
+      </c>
+      <c r="D97">
+        <v>20080111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>39478</v>
+      </c>
+      <c r="B98">
+        <v>0.54</v>
+      </c>
+      <c r="C98">
+        <v>0.6</v>
+      </c>
+      <c r="D98">
+        <v>20080213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>39507</v>
+      </c>
+      <c r="B99">
+        <v>0.49</v>
+      </c>
+      <c r="C99">
+        <v>0.45</v>
+      </c>
+      <c r="D99">
+        <v>20080311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>39538</v>
+      </c>
+      <c r="B100">
+        <v>0.48</v>
+      </c>
+      <c r="C100">
+        <v>0.36</v>
+      </c>
+      <c r="D100">
+        <v>20080409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>39568</v>
+      </c>
+      <c r="B101">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C101">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D101">
+        <v>20080509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>39599</v>
+      </c>
+      <c r="B102">
+        <v>0.79</v>
+      </c>
+      <c r="C102">
+        <v>0.65</v>
+      </c>
+      <c r="D102">
+        <v>20080611</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>39629</v>
+      </c>
+      <c r="B103">
+        <v>0.74</v>
+      </c>
+      <c r="C103">
+        <v>0.82</v>
+      </c>
+      <c r="D103">
+        <v>20080710</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>39660</v>
+      </c>
+      <c r="B104">
+        <v>0.53</v>
+      </c>
+      <c r="C104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D104">
+        <v>20080808</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>39691</v>
+      </c>
+      <c r="B105">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C105">
+        <v>0.3</v>
+      </c>
+      <c r="D105">
+        <v>20080905</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>39721</v>
+      </c>
+      <c r="B106">
+        <v>0.26</v>
+      </c>
+      <c r="C106">
+        <v>0.2</v>
+      </c>
+      <c r="D106">
+        <v>20081008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>39752</v>
+      </c>
+      <c r="B107">
+        <v>0.45</v>
+      </c>
+      <c r="C107">
+        <v>0.42</v>
+      </c>
+      <c r="D107">
+        <v>20081107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>39782</v>
+      </c>
+      <c r="B108">
+        <v>0.36</v>
+      </c>
+      <c r="C108">
+        <v>0.5</v>
+      </c>
+      <c r="D108">
+        <v>20081205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>39813</v>
+      </c>
+      <c r="B109">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C109">
+        <v>0.31</v>
+      </c>
+      <c r="D109">
+        <v>20090109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>39844</v>
+      </c>
+      <c r="B110">
+        <v>0.48</v>
+      </c>
+      <c r="C110">
+        <v>0.43</v>
+      </c>
+      <c r="D110">
+        <v>20090206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>39872</v>
+      </c>
+      <c r="B111">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C111">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D111">
+        <v>20090311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>39903</v>
+      </c>
+      <c r="B112">
+        <v>0.2</v>
+      </c>
+      <c r="C112">
+        <v>0.2</v>
+      </c>
+      <c r="D112">
+        <v>20090408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>39933</v>
+      </c>
+      <c r="B113">
+        <v>0.48</v>
+      </c>
+      <c r="C113">
+        <v>0.46</v>
+      </c>
+      <c r="D113">
+        <v>20090508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>39964</v>
+      </c>
+      <c r="B114">
+        <v>0.47</v>
+      </c>
+      <c r="C114">
+        <v>0.45</v>
+      </c>
+      <c r="D114">
+        <v>20090610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>39994</v>
+      </c>
+      <c r="B115">
+        <v>0.36</v>
+      </c>
+      <c r="C115">
+        <v>0.31</v>
+      </c>
+      <c r="D115">
+        <v>20090708</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>40025</v>
+      </c>
+      <c r="B116">
+        <v>0.24</v>
+      </c>
+      <c r="C116">
+        <v>0.27</v>
+      </c>
+      <c r="D116">
+        <v>20090807</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>40056</v>
+      </c>
+      <c r="B117">
+        <v>0.15</v>
+      </c>
+      <c r="C117">
+        <v>0.18</v>
+      </c>
+      <c r="D117">
+        <v>20090910</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>40086</v>
+      </c>
+      <c r="B118">
+        <v>0.24</v>
+      </c>
+      <c r="C118">
+        <v>0.23</v>
+      </c>
+      <c r="D118">
+        <v>20091008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>40117</v>
+      </c>
+      <c r="B119">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C119">
+        <v>0.23</v>
+      </c>
+      <c r="D119">
+        <v>20091111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>40147</v>
+      </c>
+      <c r="B120">
+        <v>0.41</v>
+      </c>
+      <c r="C120">
+        <v>0.4</v>
+      </c>
+      <c r="D120">
+        <v>20091209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>40178</v>
+      </c>
+      <c r="B121">
+        <v>0.37</v>
+      </c>
+      <c r="C121">
+        <v>0.35</v>
+      </c>
+      <c r="D121">
+        <v>20100113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>40209</v>
+      </c>
+      <c r="B122">
+        <v>0.75</v>
+      </c>
+      <c r="C122">
+        <v>0.7</v>
+      </c>
+      <c r="D122">
+        <v>20100205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>40237</v>
+      </c>
+      <c r="B123">
+        <v>0.78</v>
+      </c>
+      <c r="C123">
+        <v>0.81</v>
+      </c>
+      <c r="D123">
+        <v>20100305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>40268</v>
+      </c>
+      <c r="B124">
+        <v>0.52</v>
+      </c>
+      <c r="C124">
+        <v>0.5</v>
+      </c>
+      <c r="D124">
+        <v>20100408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>40298</v>
+      </c>
+      <c r="B125">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C125">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D125">
+        <v>20100507</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>40329</v>
+      </c>
+      <c r="B126">
+        <v>0.43</v>
+      </c>
+      <c r="C126">
+        <v>0.43</v>
+      </c>
+      <c r="D126">
+        <v>20100609</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>40359</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0.11</v>
+      </c>
+      <c r="D127">
+        <v>20100707</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>40390</v>
+      </c>
+      <c r="B128">
+        <v>0.01</v>
+      </c>
+      <c r="C128">
+        <v>0.02</v>
+      </c>
+      <c r="D128">
+        <v>20100806</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>40421</v>
+      </c>
+      <c r="B129">
+        <v>0.04</v>
+      </c>
+      <c r="C129">
+        <v>0.08</v>
+      </c>
+      <c r="D129">
+        <v>20100909</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>40451</v>
+      </c>
+      <c r="B130">
+        <v>0.45</v>
+      </c>
+      <c r="C130">
+        <v>0.46</v>
+      </c>
+      <c r="D130">
+        <v>20101007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>40482</v>
+      </c>
+      <c r="B131">
+        <v>0.75</v>
+      </c>
+      <c r="C131">
+        <v>0.67</v>
+      </c>
+      <c r="D131">
+        <v>20101109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>40512</v>
+      </c>
+      <c r="B132">
+        <v>0.83</v>
+      </c>
+      <c r="C132">
+        <v>0.87</v>
+      </c>
+      <c r="D132">
+        <v>20101208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B133">
+        <v>0.63</v>
+      </c>
+      <c r="C133">
+        <v>0.6</v>
+      </c>
+      <c r="D133">
+        <v>20110107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>40574</v>
+      </c>
+      <c r="B134">
+        <v>0.83</v>
+      </c>
+      <c r="C134">
+        <v>0.81</v>
+      </c>
+      <c r="D134">
+        <v>20110208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B135">
+        <v>0.8</v>
+      </c>
+      <c r="C135">
+        <v>0.84</v>
+      </c>
+      <c r="D135">
+        <v>20110304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B136">
+        <v>0.79</v>
+      </c>
+      <c r="C136">
+        <v>0.7</v>
+      </c>
+      <c r="D136">
+        <v>20110407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B137">
+        <v>0.77</v>
+      </c>
+      <c r="C137">
+        <v>0.85</v>
+      </c>
+      <c r="D137">
+        <v>20110506</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B138">
+        <v>0.47</v>
+      </c>
+      <c r="C138">
+        <v>0.47</v>
+      </c>
+      <c r="D138">
+        <v>20110607</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B139">
+        <v>0.15</v>
+      </c>
+      <c r="C139">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D139">
+        <v>20110707</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B140">
+        <v>0.16</v>
+      </c>
+      <c r="C140">
+        <v>0.18</v>
+      </c>
+      <c r="D140">
+        <v>20110805</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B141">
+        <v>0.37</v>
+      </c>
+      <c r="C141">
+        <v>0.36</v>
+      </c>
+      <c r="D141">
+        <v>20110906</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B142">
+        <v>0.53</v>
+      </c>
+      <c r="C142">
+        <v>0.54</v>
+      </c>
+      <c r="D142">
+        <v>20111007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B143">
+        <v>0.43</v>
+      </c>
+      <c r="C143">
+        <v>0.42</v>
+      </c>
+      <c r="D143">
+        <v>20111110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B144">
+        <v>0.52</v>
+      </c>
+      <c r="C144">
+        <v>0.5</v>
+      </c>
+      <c r="D144">
+        <v>20111208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D145">
+        <v>20120106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B146">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C146">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D146">
+        <v>20120210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B147">
+        <v>0.45</v>
+      </c>
+      <c r="C147">
+        <v>0.45</v>
+      </c>
+      <c r="D147">
+        <v>20120309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B148">
+        <v>0.21</v>
+      </c>
+      <c r="C148">
+        <v>0.37</v>
+      </c>
+      <c r="D148">
+        <v>20120405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B149">
+        <v>0.64</v>
+      </c>
+      <c r="C149">
+        <v>0.59</v>
+      </c>
+      <c r="D149">
+        <v>20120509</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B150">
+        <v>0.36</v>
+      </c>
+      <c r="C150">
+        <v>0.43</v>
+      </c>
+      <c r="D150">
+        <v>20120606</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B151">
+        <v>0.08</v>
+      </c>
+      <c r="C151">
+        <v>0.13</v>
+      </c>
+      <c r="D151">
+        <v>20120706</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B152">
+        <v>0.43</v>
+      </c>
+      <c r="C152">
+        <v>0.37</v>
+      </c>
+      <c r="D152">
+        <v>20120808</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B153">
+        <v>0.41</v>
+      </c>
+      <c r="C153">
+        <v>0.4</v>
+      </c>
+      <c r="D153">
+        <v>20120905</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B154">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C154">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D154">
+        <v>20121005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B155">
+        <v>0.59</v>
+      </c>
+      <c r="C155">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D155">
+        <v>20121107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B156">
+        <v>0.6</v>
+      </c>
+      <c r="C156">
+        <v>0.5</v>
+      </c>
+      <c r="D156">
+        <v>20121207</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B157">
+        <v>0.79</v>
+      </c>
+      <c r="C157">
+        <v>0.74</v>
+      </c>
+      <c r="D157">
+        <v>20130110</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B158">
+        <v>0.86</v>
+      </c>
+      <c r="C158">
+        <v>0.83</v>
+      </c>
+      <c r="D158">
+        <v>20130207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B159">
+        <v>0.6</v>
+      </c>
+      <c r="C159">
+        <v>0.49</v>
+      </c>
+      <c r="D159">
+        <v>20130308</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B160">
+        <v>0.47</v>
+      </c>
+      <c r="C160">
+        <v>0.5</v>
+      </c>
+      <c r="D160">
+        <v>20130410</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B161">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C161">
+        <v>0.48</v>
+      </c>
+      <c r="D161">
+        <v>20130508</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B162">
+        <v>0.37</v>
+      </c>
+      <c r="C162">
+        <v>0.38</v>
+      </c>
+      <c r="D162">
+        <v>20130607</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B163">
+        <v>0.26</v>
+      </c>
+      <c r="C163">
+        <v>0.33</v>
+      </c>
+      <c r="D163">
+        <v>20130705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B164">
+        <v>0.03</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>20130807</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B165">
+        <v>0.24</v>
+      </c>
+      <c r="C165">
+        <v>0.25</v>
+      </c>
+      <c r="D165">
+        <v>20130906</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B166">
+        <v>0.35</v>
+      </c>
+      <c r="C166">
+        <v>0.35</v>
+      </c>
+      <c r="D166">
+        <v>20131009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B167">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C167">
+        <v>0.6</v>
+      </c>
+      <c r="D167">
+        <v>20131107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B168">
+        <v>0.54</v>
+      </c>
+      <c r="C168">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D168">
+        <v>20131206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B169">
+        <v>0.92</v>
+      </c>
+      <c r="C169">
+        <v>0.82</v>
+      </c>
+      <c r="D169">
+        <v>20140110</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B170">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C170">
+        <v>0.61</v>
+      </c>
+      <c r="D170">
+        <v>20140207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B171">
+        <v>0.69</v>
+      </c>
+      <c r="C171">
+        <v>0.65</v>
+      </c>
+      <c r="D171">
+        <v>20140312</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B172">
+        <v>0.92</v>
+      </c>
+      <c r="C172">
+        <v>0.85</v>
+      </c>
+      <c r="D172">
+        <v>20140409</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B173">
+        <v>0.67</v>
+      </c>
+      <c r="C173">
+        <v>0.79</v>
+      </c>
+      <c r="D173">
+        <v>20140509</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B174">
+        <v>0.46</v>
+      </c>
+      <c r="C174">
+        <v>0.38</v>
+      </c>
+      <c r="D174">
+        <v>20140606</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B175">
+        <v>0.4</v>
+      </c>
+      <c r="C175">
+        <v>0.39</v>
+      </c>
+      <c r="D175">
+        <v>20140708</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B176">
+        <v>0.01</v>
+      </c>
+      <c r="C176">
+        <v>0.1</v>
+      </c>
+      <c r="D176">
+        <v>20140808</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B177">
+        <v>0.25</v>
+      </c>
+      <c r="C177">
+        <v>0.25</v>
+      </c>
+      <c r="D177">
+        <v>20140905</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B178">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C178">
+        <v>0.48</v>
+      </c>
+      <c r="D178">
+        <v>20141008</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B179">
+        <v>0.42</v>
+      </c>
+      <c r="C179">
+        <v>0.48</v>
+      </c>
+      <c r="D179">
+        <v>20141107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B180">
+        <v>0.51</v>
+      </c>
+      <c r="C180">
+        <v>0.54</v>
+      </c>
+      <c r="D180">
+        <v>20141205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B181">
+        <v>0.78</v>
+      </c>
+      <c r="C181">
+        <v>0.78</v>
+      </c>
+      <c r="D181">
+        <v>20150109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B182">
+        <v>1.24</v>
+      </c>
+      <c r="C182">
+        <v>1.25</v>
+      </c>
+      <c r="D182">
+        <v>20150206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B183">
+        <v>1.22</v>
+      </c>
+      <c r="C183">
+        <v>1.08</v>
+      </c>
+      <c r="D183">
+        <v>20150306</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B184">
+        <v>1.32</v>
+      </c>
+      <c r="C184">
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="D184">
+        <v>20150408</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B185">
+        <v>0.71</v>
+      </c>
+      <c r="C185">
+        <v>0.75</v>
+      </c>
+      <c r="D185">
+        <v>20150508</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B186">
+        <v>0.74</v>
+      </c>
+      <c r="C186">
+        <v>0.59</v>
+      </c>
+      <c r="D186">
+        <v>20150610</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B187">
+        <v>0.79</v>
+      </c>
+      <c r="C187">
+        <v>0.82</v>
+      </c>
+      <c r="D187">
+        <v>20150708</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B188">
+        <v>0.62</v>
+      </c>
+      <c r="C188">
+        <v>0.6</v>
+      </c>
+      <c r="D188">
+        <v>20150807</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B189">
+        <v>0.22</v>
+      </c>
+      <c r="C189">
+        <v>0.23</v>
+      </c>
+      <c r="D189">
+        <v>20150910</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B190">
+        <v>0.54</v>
+      </c>
+      <c r="C190">
+        <v>0.52</v>
+      </c>
+      <c r="D190">
+        <v>20151007</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B191">
+        <v>0.82</v>
+      </c>
+      <c r="C191">
+        <v>0.8</v>
+      </c>
+      <c r="D191">
+        <v>20151106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B192">
+        <v>1.01</v>
+      </c>
+      <c r="C192">
+        <v>0.95</v>
+      </c>
+      <c r="D192">
+        <v>20151209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B193">
+        <v>0.96</v>
+      </c>
+      <c r="C193">
+        <v>1.05</v>
+      </c>
+      <c r="D193">
+        <v>20160108</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B194">
+        <v>1.27</v>
+      </c>
+      <c r="C194">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D194">
+        <v>20160205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B195">
+        <v>0.9</v>
+      </c>
+      <c r="C195">
+        <v>0.98</v>
+      </c>
+      <c r="D195">
+        <v>20160309</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B196">
+        <v>0.43</v>
+      </c>
+      <c r="C196">
+        <v>0.46</v>
+      </c>
+      <c r="D196">
+        <v>20160408</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B197">
+        <v>0.61</v>
+      </c>
+      <c r="C197">
+        <v>0.54</v>
+      </c>
+      <c r="D197">
+        <v>20160506</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B198">
+        <v>0.78</v>
+      </c>
+      <c r="C198">
+        <v>0.75</v>
+      </c>
+      <c r="D198">
+        <v>20160608</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B199">
+        <v>0.35</v>
+      </c>
+      <c r="C199">
+        <v>0.37</v>
+      </c>
+      <c r="D199">
+        <v>20160708</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B200">
+        <v>0.52</v>
+      </c>
+      <c r="C200">
+        <v>0.45</v>
+      </c>
+      <c r="D200">
+        <v>20160810</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B201">
+        <v>0.44</v>
+      </c>
+      <c r="C201">
+        <v>0.44</v>
+      </c>
+      <c r="D201">
+        <v>20160909</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B202">
+        <v>0.08</v>
+      </c>
+      <c r="C202">
+        <v>0.18</v>
+      </c>
+      <c r="D202">
+        <v>20161007</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B203">
+        <v>0.26</v>
+      </c>
+      <c r="C203">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D203">
+        <v>20161109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B204">
+        <v>0.18</v>
+      </c>
+      <c r="C204">
+        <v>0.27</v>
+      </c>
+      <c r="D204">
+        <v>20161209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B205">
+        <v>0.3</v>
+      </c>
+      <c r="C205">
+        <v>0.34</v>
+      </c>
+      <c r="D205">
+        <v>20170111</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B206">
+        <v>0.38</v>
+      </c>
+      <c r="C206">
+        <v>0.42</v>
+      </c>
+      <c r="D206">
+        <v>20170208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B207">
+        <v>0.33</v>
+      </c>
+      <c r="C207">
+        <v>0.43</v>
+      </c>
+      <c r="D207">
+        <v>20170310</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B208">
+        <v>0.25</v>
+      </c>
+      <c r="C208">
+        <v>0.25</v>
+      </c>
+      <c r="D208">
+        <v>20170407</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B209">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C209">
+        <v>0.15</v>
+      </c>
+      <c r="D209">
+        <v>20170510</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B210">
+        <v>0.31</v>
+      </c>
+      <c r="C210">
+        <v>0.47</v>
+      </c>
+      <c r="D210">
+        <v>20170609</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B211">
+        <v>-0.23</v>
+      </c>
+      <c r="C211">
+        <v>-0.19</v>
+      </c>
+      <c r="D211">
+        <v>20170707</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B212">
+        <v>0.24</v>
+      </c>
+      <c r="C212">
+        <v>0.18</v>
+      </c>
+      <c r="D212">
+        <v>20170809</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B213">
+        <v>0.19</v>
+      </c>
+      <c r="C213">
+        <v>0.3</v>
+      </c>
+      <c r="D213">
+        <v>20170906</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B214">
+        <v>0.16</v>
+      </c>
+      <c r="C214">
+        <v>0.09</v>
+      </c>
+      <c r="D214">
+        <v>20171006</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B215">
+        <v>0.42</v>
+      </c>
+      <c r="C215">
+        <v>0.49</v>
+      </c>
+      <c r="D215">
+        <v>20171110</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B216">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C216">
+        <v>0.35</v>
+      </c>
+      <c r="D216">
+        <v>20171208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B217">
+        <v>0.44</v>
+      </c>
+      <c r="C217">
+        <v>0.3</v>
+      </c>
+      <c r="D217">
+        <v>20180110</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B218">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C218">
+        <v>0.41</v>
+      </c>
+      <c r="D218">
+        <v>20180208</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219">
+        <v>20180309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D219"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
       <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
@@ -385,7 +3553,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -398,18 +3566,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="e">
-        <f ca="1">_xll.BDH($A$1,$B$1:$D$1,"1/1/2000","","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cm","DtFmt=D","UseDPDF=Y","CshAdjNormal=N","CshAdjAbnormal=N","CapChg=N","cols=4;rows=218")</f>
-        <v>#NAME?</v>
+      <c r="A2" s="1">
+        <f>_xll.BDH($A$1,$B$1:$D$1,"1/1/2000","","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cm","DtFmt=D","UseDPDF=Y","CshAdjNormal=N","CshAdjAbnormal=N","CapChg=N","cols=4;rows=218")</f>
+        <v>36556</v>
       </c>
       <c r="B2">
-        <v>0.62</v>
-      </c>
-      <c r="C2">
-        <v>0.75</v>
-      </c>
-      <c r="D2">
-        <v>20000210</v>
+        <v>8.89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -417,13 +3585,13 @@
         <v>36585</v>
       </c>
       <c r="B3">
-        <v>0.13</v>
-      </c>
-      <c r="C3">
-        <v>0.75</v>
-      </c>
-      <c r="D3">
-        <v>20000314</v>
+        <v>8.56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -431,13 +3599,13 @@
         <v>36616</v>
       </c>
       <c r="B4">
-        <v>0.22</v>
-      </c>
-      <c r="C4">
-        <v>0.75</v>
-      </c>
-      <c r="D4">
-        <v>20000411</v>
+        <v>7.35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,13 +3613,13 @@
         <v>36646</v>
       </c>
       <c r="B5">
-        <v>0.42</v>
-      </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-      <c r="D5">
-        <v>20000512</v>
+        <v>7.02</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,13 +3627,13 @@
         <v>36677</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6">
-        <v>20000609</v>
+        <v>6.57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,13 +3641,13 @@
         <v>36707</v>
       </c>
       <c r="B7">
-        <v>0.23</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7">
-        <v>20000712</v>
+        <v>6.68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,13 +3655,13 @@
         <v>36738</v>
       </c>
       <c r="B8">
-        <v>1.6099999999999999</v>
-      </c>
-      <c r="C8">
-        <v>1.3900000000000001</v>
-      </c>
-      <c r="D8">
-        <v>20000810</v>
+        <v>6.67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,13 +3669,13 @@
         <v>36769</v>
       </c>
       <c r="B9">
-        <v>1.31</v>
-      </c>
-      <c r="C9">
-        <v>1.3</v>
-      </c>
-      <c r="D9">
-        <v>20000912</v>
+        <v>7.92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,13 +3683,13 @@
         <v>36799</v>
       </c>
       <c r="B10">
-        <v>0.23</v>
-      </c>
-      <c r="C10">
-        <v>0.27</v>
-      </c>
-      <c r="D10">
-        <v>20001011</v>
+        <v>7.9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,13 +3697,13 @@
         <v>36830</v>
       </c>
       <c r="B11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C11">
-        <v>0.2</v>
-      </c>
-      <c r="D11">
-        <v>20001110</v>
+        <v>7.23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,13 +3711,13 @@
         <v>36860</v>
       </c>
       <c r="B12">
-        <v>0.32</v>
-      </c>
-      <c r="C12">
-        <v>0.35</v>
-      </c>
-      <c r="D12">
-        <v>20001212</v>
+        <v>6.36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,13 +3725,13 @@
         <v>36891</v>
       </c>
       <c r="B13">
-        <v>0.59</v>
-      </c>
-      <c r="C13">
-        <v>0.6</v>
-      </c>
-      <c r="D13">
-        <v>20010112</v>
+        <v>6.04</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,13 +3739,13 @@
         <v>36922</v>
       </c>
       <c r="B14">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="D14">
-        <v>20010209</v>
+        <v>6.01</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,13 +3753,13 @@
         <v>36950</v>
       </c>
       <c r="B15">
-        <v>0.46</v>
-      </c>
-      <c r="C15">
-        <v>0.34</v>
-      </c>
-      <c r="D15">
-        <v>20010314</v>
+        <v>6.18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,13 +3767,13 @@
         <v>36981</v>
       </c>
       <c r="B16">
-        <v>0.38</v>
-      </c>
-      <c r="C16">
-        <v>0.37</v>
-      </c>
-      <c r="D16">
-        <v>20010411</v>
+        <v>6.47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,13 +3781,13 @@
         <v>37011</v>
       </c>
       <c r="B17">
-        <v>0.57999999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>20010511</v>
+      <c r="D17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,13 +3795,13 @@
         <v>37042</v>
       </c>
       <c r="B18">
-        <v>0.41</v>
-      </c>
-      <c r="C18">
-        <v>0.4</v>
-      </c>
-      <c r="D18">
-        <v>20010612</v>
+        <v>6.93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,13 +3809,13 @@
         <v>37072</v>
       </c>
       <c r="B19">
-        <v>0.52</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="D19">
-        <v>20010713</v>
+        <v>7.25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,13 +3823,13 @@
         <v>37103</v>
       </c>
       <c r="B20">
-        <v>1.33</v>
-      </c>
-      <c r="C20">
-        <v>1.2</v>
-      </c>
-      <c r="D20">
-        <v>20010810</v>
+        <v>7.42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,13 +3837,13 @@
         <v>37134</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
-      </c>
-      <c r="C21">
-        <v>0.7</v>
-      </c>
-      <c r="D21">
-        <v>20010912</v>
+        <v>6.57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,13 +3851,13 @@
         <v>37164</v>
       </c>
       <c r="B22">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C22">
-        <v>0.3</v>
-      </c>
-      <c r="D22">
-        <v>20011010</v>
+        <v>6.49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,13 +3865,13 @@
         <v>37195</v>
       </c>
       <c r="B23">
-        <v>0.83</v>
-      </c>
-      <c r="C23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D23">
-        <v>20011109</v>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,13 +3879,13 @@
         <v>37225</v>
       </c>
       <c r="B24">
-        <v>0.71</v>
-      </c>
-      <c r="C24">
-        <v>0.78</v>
-      </c>
-      <c r="D24">
-        <v>20011212</v>
+        <v>7.57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,13 +3893,13 @@
         <v>37256</v>
       </c>
       <c r="B25">
-        <v>0.65</v>
-      </c>
-      <c r="C25">
-        <v>0.4</v>
-      </c>
-      <c r="D25">
-        <v>20020111</v>
+        <v>7.51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,13 +3907,13 @@
         <v>37287</v>
       </c>
       <c r="B26">
-        <v>0.52</v>
-      </c>
-      <c r="C26">
-        <v>0.49</v>
-      </c>
-      <c r="D26">
-        <v>20020208</v>
+        <v>7.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,13 +3921,13 @@
         <v>37315</v>
       </c>
       <c r="B27">
-        <v>0.36</v>
-      </c>
-      <c r="C27">
-        <v>0.34</v>
-      </c>
-      <c r="D27">
-        <v>20020312</v>
+        <v>7.44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,13 +3935,13 @@
         <v>37346</v>
       </c>
       <c r="B28">
-        <v>0.6</v>
-      </c>
-      <c r="C28">
-        <v>0.46</v>
-      </c>
-      <c r="D28">
-        <v>20020410</v>
+        <v>7.48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,13 +3949,13 @@
         <v>37376</v>
       </c>
       <c r="B29">
-        <v>0.8</v>
-      </c>
-      <c r="C29">
-        <v>0.85</v>
-      </c>
-      <c r="D29">
-        <v>20020510</v>
+        <v>7.78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,13 +3963,13 @@
         <v>37407</v>
       </c>
       <c r="B30">
-        <v>0.21</v>
-      </c>
-      <c r="C30">
-        <v>0.3</v>
-      </c>
-      <c r="D30">
-        <v>20020612</v>
+        <v>7.7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,13 +3977,13 @@
         <v>37437</v>
       </c>
       <c r="B31">
-        <v>0.42</v>
-      </c>
-      <c r="C31">
-        <v>0.5</v>
-      </c>
-      <c r="D31">
-        <v>20020710</v>
+        <v>7.65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,13 +3991,13 @@
         <v>37468</v>
       </c>
       <c r="B32">
-        <v>1.19</v>
-      </c>
-      <c r="C32">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D32">
-        <v>20020809</v>
+        <v>7.47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,13 +4005,13 @@
         <v>37499</v>
       </c>
       <c r="B33">
-        <v>0.65</v>
-      </c>
-      <c r="C33">
-        <v>0.68</v>
-      </c>
-      <c r="D33">
-        <v>20020910</v>
+        <v>7.28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,13 +4019,13 @@
         <v>37529</v>
       </c>
       <c r="B34">
-        <v>0.72</v>
-      </c>
-      <c r="C34">
-        <v>0.65</v>
-      </c>
-      <c r="D34">
-        <v>20021009</v>
+        <v>7.54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,13 +4033,13 @@
         <v>37560</v>
       </c>
       <c r="B35">
-        <v>1.31</v>
-      </c>
-      <c r="C35">
-        <v>1.2</v>
-      </c>
-      <c r="D35">
-        <v>20021112</v>
+        <v>8.1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,13 +4047,13 @@
         <v>37590</v>
       </c>
       <c r="B36">
-        <v>3.02</v>
-      </c>
-      <c r="C36">
-        <v>2.75</v>
-      </c>
-      <c r="D36">
-        <v>20021206</v>
+        <v>9.27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,13 +4061,13 @@
         <v>37621</v>
       </c>
       <c r="B37">
-        <v>2.1</v>
-      </c>
-      <c r="C37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D37">
-        <v>20030110</v>
+        <v>11.99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,13 +4075,13 @@
         <v>37652</v>
       </c>
       <c r="B38">
-        <v>2.25</v>
-      </c>
-      <c r="C38">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D38">
-        <v>20030212</v>
+        <v>13.5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,13 +4089,13 @@
         <v>37680</v>
       </c>
       <c r="B39">
-        <v>1.5699999999999998</v>
-      </c>
-      <c r="C39">
-        <v>1.65</v>
-      </c>
-      <c r="D39">
-        <v>20030314</v>
+        <v>15.48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,13 +4103,13 @@
         <v>37711</v>
       </c>
       <c r="B40">
-        <v>1.23</v>
-      </c>
-      <c r="C40">
-        <v>0.9</v>
-      </c>
-      <c r="D40">
-        <v>20030410</v>
+        <v>16.329999999999998</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,13 +4117,13 @@
         <v>37741</v>
       </c>
       <c r="B41">
-        <v>0.97</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>20030513</v>
+        <v>16.739999999999998</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,13 +4131,13 @@
         <v>37772</v>
       </c>
       <c r="B42">
-        <v>0.61</v>
-      </c>
-      <c r="C42">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D42">
-        <v>20030610</v>
+        <v>17.239999999999998</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,13 +4145,13 @@
         <v>37802</v>
       </c>
       <c r="B43">
-        <v>-0.15</v>
-      </c>
-      <c r="C43">
-        <v>-0.04</v>
-      </c>
-      <c r="D43">
-        <v>20030709</v>
+        <v>17.12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,13 +4159,13 @@
         <v>37833</v>
       </c>
       <c r="B44">
-        <v>0.2</v>
-      </c>
-      <c r="C44">
-        <v>0.25</v>
-      </c>
-      <c r="D44">
-        <v>20030808</v>
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,13 +4173,13 @@
         <v>37864</v>
       </c>
       <c r="B45">
-        <v>0.34</v>
-      </c>
-      <c r="C45">
-        <v>0.3</v>
-      </c>
-      <c r="D45">
-        <v>20030909</v>
+        <v>15.17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,13 +4187,13 @@
         <v>37894</v>
       </c>
       <c r="B46">
-        <v>0.78</v>
-      </c>
-      <c r="C46">
-        <v>0.7</v>
-      </c>
-      <c r="D46">
-        <v>20031009</v>
+        <v>15.12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,13 +4201,13 @@
         <v>37925</v>
       </c>
       <c r="B47">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C47">
-        <v>0.49</v>
-      </c>
-      <c r="D47">
-        <v>20031106</v>
+        <v>14.84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,13 +4215,13 @@
         <v>37955</v>
       </c>
       <c r="B48">
-        <v>0.34</v>
-      </c>
-      <c r="C48">
-        <v>0.3</v>
-      </c>
-      <c r="D48">
-        <v>20031205</v>
+        <v>12.69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,13 +4229,13 @@
         <v>37986</v>
       </c>
       <c r="B49">
-        <v>0.52</v>
-      </c>
-      <c r="C49">
-        <v>0.5</v>
-      </c>
-      <c r="D49">
-        <v>20040114</v>
+        <v>9.86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,13 +4243,13 @@
         <v>38017</v>
       </c>
       <c r="B50">
-        <v>0.76</v>
-      </c>
-      <c r="C50">
-        <v>0.75</v>
-      </c>
-      <c r="D50">
-        <v>20040213</v>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,13 +4257,13 @@
         <v>38046</v>
       </c>
       <c r="B51">
-        <v>0.61</v>
-      </c>
-      <c r="C51">
-        <v>0.72</v>
-      </c>
-      <c r="D51">
-        <v>20040311</v>
+        <v>7.09</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,13 +4271,13 @@
         <v>38077</v>
       </c>
       <c r="B52">
-        <v>0.47</v>
-      </c>
-      <c r="C52">
-        <v>0.4</v>
-      </c>
-      <c r="D52">
-        <v>20040407</v>
+        <v>6.31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,13 +4285,13 @@
         <v>38107</v>
       </c>
       <c r="B53">
-        <v>0.37</v>
-      </c>
-      <c r="C53">
-        <v>0.4</v>
-      </c>
-      <c r="D53">
-        <v>20040507</v>
+        <v>5.33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1131,13 +4299,13 @@
         <v>38138</v>
       </c>
       <c r="B54">
-        <v>0.51</v>
-      </c>
-      <c r="C54">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D54">
-        <v>20040608</v>
+        <v>5.01</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,13 +4313,13 @@
         <v>38168</v>
       </c>
       <c r="B55">
-        <v>0.71</v>
-      </c>
-      <c r="C55">
-        <v>0.69</v>
-      </c>
-      <c r="D55">
-        <v>20040709</v>
+        <v>5.36</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,13 +4327,13 @@
         <v>38199</v>
       </c>
       <c r="B56">
-        <v>0.91</v>
-      </c>
-      <c r="C56">
-        <v>0.95</v>
-      </c>
-      <c r="D56">
-        <v>20040811</v>
+        <v>6.53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,13 +4341,13 @@
         <v>38230</v>
       </c>
       <c r="B57">
-        <v>0.69</v>
-      </c>
-      <c r="C57">
-        <v>0.64</v>
-      </c>
-      <c r="D57">
-        <v>20040910</v>
+        <v>7.09</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,13 +4355,13 @@
         <v>38260</v>
       </c>
       <c r="B58">
-        <v>0.33</v>
-      </c>
-      <c r="C58">
-        <v>0.44</v>
-      </c>
-      <c r="D58">
-        <v>20041008</v>
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,13 +4369,13 @@
         <v>38291</v>
       </c>
       <c r="B59">
-        <v>0.44</v>
-      </c>
-      <c r="C59">
-        <v>0.45</v>
-      </c>
-      <c r="D59">
-        <v>20041111</v>
+        <v>6.64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,13 +4383,13 @@
         <v>38321</v>
       </c>
       <c r="B60">
-        <v>0.69</v>
-      </c>
-      <c r="C60">
-        <v>0.65</v>
-      </c>
-      <c r="D60">
-        <v>20041208</v>
+        <v>7.13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,13 +4397,13 @@
         <v>38352</v>
       </c>
       <c r="B61">
-        <v>0.86</v>
-      </c>
-      <c r="C61">
-        <v>0.75</v>
-      </c>
-      <c r="D61">
-        <v>20050114</v>
+        <v>7.54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1243,13 +4411,13 @@
         <v>38383</v>
       </c>
       <c r="B62">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C62">
-        <v>0.59</v>
-      </c>
-      <c r="D62">
-        <v>20050214</v>
+        <v>7.54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,13 +4425,13 @@
         <v>38411</v>
       </c>
       <c r="B63">
-        <v>0.59</v>
-      </c>
-      <c r="C63">
-        <v>0.6</v>
-      </c>
-      <c r="D63">
-        <v>20050311</v>
+        <v>7.36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,13 +4439,13 @@
         <v>38442</v>
       </c>
       <c r="B64">
-        <v>0.61</v>
-      </c>
-      <c r="C64">
-        <v>0.6</v>
-      </c>
-      <c r="D64">
-        <v>20050408</v>
+        <v>7.31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,13 +4453,13 @@
         <v>38472</v>
       </c>
       <c r="B65">
-        <v>0.87</v>
-      </c>
-      <c r="C65">
-        <v>0.82</v>
-      </c>
-      <c r="D65">
-        <v>20050511</v>
+        <v>7.88</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,13 +4467,13 @@
         <v>38503</v>
       </c>
       <c r="B66">
-        <v>0.49</v>
-      </c>
-      <c r="C66">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D66">
-        <v>20050610</v>
+        <v>8.19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,13 +4481,13 @@
         <v>38533</v>
       </c>
       <c r="B67">
-        <v>-0.02</v>
-      </c>
-      <c r="C67">
-        <v>0.06</v>
-      </c>
-      <c r="D67">
-        <v>20050708</v>
+        <v>7.72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,13 +4495,13 @@
         <v>38564</v>
       </c>
       <c r="B68">
-        <v>0.25</v>
-      </c>
-      <c r="C68">
-        <v>0.25</v>
-      </c>
-      <c r="D68">
-        <v>20050809</v>
+        <v>6.84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,13 +4509,13 @@
         <v>38595</v>
       </c>
       <c r="B69">
-        <v>0.17</v>
-      </c>
-      <c r="C69">
-        <v>0.17</v>
-      </c>
-      <c r="D69">
-        <v>20050906</v>
+        <v>6.3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,13 +4523,13 @@
         <v>38625</v>
       </c>
       <c r="B70">
-        <v>0.35</v>
-      </c>
-      <c r="C70">
-        <v>0.35</v>
-      </c>
-      <c r="D70">
-        <v>20051007</v>
+        <v>5.95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +4537,13 @@
         <v>38656</v>
       </c>
       <c r="B71">
-        <v>0.75</v>
-      </c>
-      <c r="C71">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D71">
-        <v>20051110</v>
+        <v>6.21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,13 +4551,13 @@
         <v>38686</v>
       </c>
       <c r="B72">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C72">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D72">
-        <v>20051209</v>
+        <v>6.36</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,13 +4565,13 @@
         <v>38717</v>
       </c>
       <c r="B73">
-        <v>0.36</v>
-      </c>
-      <c r="C73">
-        <v>0.35</v>
-      </c>
-      <c r="D73">
-        <v>20060112</v>
+        <v>5.88</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,13 +4579,13 @@
         <v>38748</v>
       </c>
       <c r="B74">
-        <v>0.59</v>
-      </c>
-      <c r="C74">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D74">
-        <v>20060209</v>
+        <v>5.7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +4593,13 @@
         <v>38776</v>
       </c>
       <c r="B75">
-        <v>0.41</v>
-      </c>
-      <c r="C75">
-        <v>0.41</v>
-      </c>
-      <c r="D75">
-        <v>20060310</v>
+        <v>5.47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +4607,13 @@
         <v>38807</v>
       </c>
       <c r="B76">
-        <v>0.43</v>
-      </c>
-      <c r="C76">
-        <v>0.45</v>
-      </c>
-      <c r="D76">
-        <v>20060407</v>
+        <v>5.49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,13 +4621,13 @@
         <v>38837</v>
       </c>
       <c r="B77">
-        <v>0.21</v>
-      </c>
-      <c r="C77">
-        <v>0.22</v>
-      </c>
-      <c r="D77">
-        <v>20060510</v>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +4635,13 @@
         <v>38868</v>
       </c>
       <c r="B78">
-        <v>0.1</v>
-      </c>
-      <c r="C78">
-        <v>0.15</v>
-      </c>
-      <c r="D78">
-        <v>20060608</v>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,13 +4649,13 @@
         <v>38898</v>
       </c>
       <c r="B79">
-        <v>-0.21</v>
-      </c>
-      <c r="C79">
-        <v>-0.13</v>
-      </c>
-      <c r="D79">
-        <v>20060707</v>
+        <v>4.03</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +4663,13 @@
         <v>38929</v>
       </c>
       <c r="B80">
-        <v>0.19</v>
-      </c>
-      <c r="C80">
-        <v>0.16</v>
-      </c>
-      <c r="D80">
-        <v>20060811</v>
+        <v>3.89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +4677,13 @@
         <v>38960</v>
       </c>
       <c r="B81">
-        <v>0.05</v>
-      </c>
-      <c r="C81">
-        <v>0.2</v>
-      </c>
-      <c r="D81">
-        <v>20060906</v>
+        <v>3.8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,13 +4691,13 @@
         <v>38990</v>
       </c>
       <c r="B82">
-        <v>0.21</v>
-      </c>
-      <c r="C82">
-        <v>0.12</v>
-      </c>
-      <c r="D82">
-        <v>20061006</v>
+        <v>3.69</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +4705,13 @@
         <v>39021</v>
       </c>
       <c r="B83">
-        <v>0.33</v>
-      </c>
-      <c r="C83">
-        <v>0.34</v>
-      </c>
-      <c r="D83">
-        <v>20061110</v>
+        <v>3.41</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,13 +4719,13 @@
         <v>39051</v>
       </c>
       <c r="B84">
-        <v>0.31</v>
-      </c>
-      <c r="C84">
-        <v>0.35</v>
-      </c>
-      <c r="D84">
-        <v>20061208</v>
+        <v>2.99</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,13 +4733,13 @@
         <v>39082</v>
       </c>
       <c r="B85">
-        <v>0.48</v>
-      </c>
-      <c r="C85">
-        <v>0.45</v>
-      </c>
-      <c r="D85">
-        <v>20070112</v>
+        <v>2.96</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,13 +4747,13 @@
         <v>39113</v>
       </c>
       <c r="B86">
-        <v>0.44</v>
-      </c>
-      <c r="C86">
-        <v>0.47</v>
-      </c>
-      <c r="D86">
-        <v>20070209</v>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,13 +4761,13 @@
         <v>39141</v>
       </c>
       <c r="B87">
-        <v>0.44</v>
-      </c>
-      <c r="C87">
-        <v>0.42</v>
-      </c>
-      <c r="D87">
-        <v>20070309</v>
+        <v>2.91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,13 +4775,13 @@
         <v>39172</v>
       </c>
       <c r="B88">
-        <v>0.37</v>
-      </c>
-      <c r="C88">
-        <v>0.4</v>
-      </c>
-      <c r="D88">
-        <v>20070411</v>
+        <v>2.95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,13 +4789,13 @@
         <v>39202</v>
       </c>
       <c r="B89">
-        <v>0.25</v>
-      </c>
-      <c r="C89">
-        <v>0.25</v>
-      </c>
-      <c r="D89">
-        <v>20070511</v>
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,13 +4803,13 @@
         <v>39233</v>
       </c>
       <c r="B90">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C90">
-        <v>0.22</v>
-      </c>
-      <c r="D90">
-        <v>20070606</v>
+        <v>2.99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,13 +4817,13 @@
         <v>39263</v>
       </c>
       <c r="B91">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C91">
-        <v>0.3</v>
-      </c>
-      <c r="D91">
-        <v>20070706</v>
+        <v>3.44</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,13 +4831,13 @@
         <v>39294</v>
       </c>
       <c r="B92">
-        <v>0.24</v>
-      </c>
-      <c r="C92">
-        <v>0.23</v>
-      </c>
-      <c r="D92">
-        <v>20070808</v>
+        <v>3.71</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,13 +4845,13 @@
         <v>39325</v>
       </c>
       <c r="B93">
-        <v>0.47</v>
-      </c>
-      <c r="C93">
-        <v>0.46</v>
-      </c>
-      <c r="D93">
-        <v>20070906</v>
+        <v>3.95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,13 +4859,13 @@
         <v>39355</v>
       </c>
       <c r="B94">
-        <v>0.18</v>
-      </c>
-      <c r="C94">
-        <v>0.25</v>
-      </c>
-      <c r="D94">
-        <v>20071010</v>
+        <v>4.2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,13 +4873,13 @@
         <v>39386</v>
       </c>
       <c r="B95">
-        <v>0.3</v>
-      </c>
-      <c r="C95">
-        <v>0.2</v>
-      </c>
-      <c r="D95">
-        <v>20071107</v>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,13 +4887,13 @@
         <v>39416</v>
       </c>
       <c r="B96">
-        <v>0.38</v>
-      </c>
-      <c r="C96">
-        <v>0.3</v>
-      </c>
-      <c r="D96">
-        <v>20071206</v>
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,13 +4901,13 @@
         <v>39447</v>
       </c>
       <c r="B97">
-        <v>0.74</v>
-      </c>
-      <c r="C97">
-        <v>0.75</v>
-      </c>
-      <c r="D97">
-        <v>20080111</v>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,13 +4915,13 @@
         <v>39478</v>
       </c>
       <c r="B98">
-        <v>0.54</v>
-      </c>
-      <c r="C98">
-        <v>0.6</v>
-      </c>
-      <c r="D98">
-        <v>20080213</v>
+        <v>4.55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,13 +4929,13 @@
         <v>39507</v>
       </c>
       <c r="B99">
-        <v>0.49</v>
-      </c>
-      <c r="C99">
-        <v>0.45</v>
-      </c>
-      <c r="D99">
-        <v>20080311</v>
+        <v>4.74</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,13 +4943,13 @@
         <v>39538</v>
       </c>
       <c r="B100">
-        <v>0.48</v>
-      </c>
-      <c r="C100">
-        <v>0.36</v>
-      </c>
-      <c r="D100">
-        <v>20080409</v>
+        <v>4.55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,13 +4957,13 @@
         <v>39568</v>
       </c>
       <c r="B101">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C101">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D101">
-        <v>20080509</v>
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,13 +4971,13 @@
         <v>39599</v>
       </c>
       <c r="B102">
-        <v>0.79</v>
-      </c>
-      <c r="C102">
-        <v>0.65</v>
-      </c>
-      <c r="D102">
-        <v>20080611</v>
+        <v>5.25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,13 +4985,13 @@
         <v>39629</v>
       </c>
       <c r="B103">
-        <v>0.74</v>
-      </c>
-      <c r="C103">
-        <v>0.82</v>
-      </c>
-      <c r="D103">
-        <v>20080710</v>
+        <v>5.89</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,13 +4999,13 @@
         <v>39660</v>
       </c>
       <c r="B104">
-        <v>0.53</v>
-      </c>
-      <c r="C104">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D104">
-        <v>20080808</v>
+        <v>6.3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,13 +5013,13 @@
         <v>39691</v>
       </c>
       <c r="B105">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C105">
-        <v>0.3</v>
-      </c>
-      <c r="D105">
-        <v>20080905</v>
+        <v>6.23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,13 +5027,13 @@
         <v>39721</v>
       </c>
       <c r="B106">
-        <v>0.26</v>
-      </c>
-      <c r="C106">
-        <v>0.2</v>
-      </c>
-      <c r="D106">
-        <v>20081008</v>
+        <v>6.2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,13 +5041,13 @@
         <v>39752</v>
       </c>
       <c r="B107">
-        <v>0.45</v>
-      </c>
-      <c r="C107">
-        <v>0.42</v>
-      </c>
-      <c r="D107">
-        <v>20081107</v>
+        <v>6.26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,13 +5055,13 @@
         <v>39782</v>
       </c>
       <c r="B108">
-        <v>0.36</v>
-      </c>
-      <c r="C108">
-        <v>0.5</v>
-      </c>
-      <c r="D108">
-        <v>20081205</v>
+        <v>6.54</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,13 +5069,13 @@
         <v>39813</v>
       </c>
       <c r="B109">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C109">
-        <v>0.31</v>
-      </c>
-      <c r="D109">
-        <v>20090109</v>
+        <v>6.1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +5083,13 @@
         <v>39844</v>
       </c>
       <c r="B110">
-        <v>0.48</v>
-      </c>
-      <c r="C110">
-        <v>0.43</v>
-      </c>
-      <c r="D110">
-        <v>20090206</v>
+        <v>5.79</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +5097,13 @@
         <v>39872</v>
       </c>
       <c r="B111">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C111">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D111">
-        <v>20090311</v>
+        <v>5.77</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,13 +5111,13 @@
         <v>39903</v>
       </c>
       <c r="B112">
-        <v>0.2</v>
-      </c>
-      <c r="C112">
-        <v>0.2</v>
-      </c>
-      <c r="D112">
-        <v>20090408</v>
+        <v>5.65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,13 +5125,13 @@
         <v>39933</v>
       </c>
       <c r="B113">
-        <v>0.48</v>
-      </c>
-      <c r="C113">
-        <v>0.46</v>
-      </c>
-      <c r="D113">
-        <v>20090508</v>
+        <v>5.4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,13 +5139,13 @@
         <v>39964</v>
       </c>
       <c r="B114">
-        <v>0.47</v>
-      </c>
-      <c r="C114">
-        <v>0.45</v>
-      </c>
-      <c r="D114">
-        <v>20090610</v>
+        <v>5.44</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,13 +5153,13 @@
         <v>39994</v>
       </c>
       <c r="B115">
-        <v>0.36</v>
-      </c>
-      <c r="C115">
-        <v>0.31</v>
-      </c>
-      <c r="D115">
-        <v>20090708</v>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,13 +5167,13 @@
         <v>40025</v>
       </c>
       <c r="B116">
-        <v>0.24</v>
-      </c>
-      <c r="C116">
-        <v>0.27</v>
-      </c>
-      <c r="D116">
-        <v>20090807</v>
+        <v>4.47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,13 +5181,13 @@
         <v>40056</v>
       </c>
       <c r="B117">
-        <v>0.15</v>
-      </c>
-      <c r="C117">
-        <v>0.18</v>
-      </c>
-      <c r="D117">
-        <v>20090910</v>
+        <v>4.34</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,13 +5195,13 @@
         <v>40086</v>
       </c>
       <c r="B118">
-        <v>0.24</v>
-      </c>
-      <c r="C118">
-        <v>0.23</v>
-      </c>
-      <c r="D118">
-        <v>20091008</v>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,13 +5209,13 @@
         <v>40117</v>
       </c>
       <c r="B119">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C119">
-        <v>0.23</v>
-      </c>
-      <c r="D119">
-        <v>20091111</v>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,13 +5223,13 @@
         <v>40147</v>
       </c>
       <c r="B120">
-        <v>0.41</v>
-      </c>
-      <c r="C120">
-        <v>0.4</v>
-      </c>
-      <c r="D120">
-        <v>20091209</v>
+        <v>4.09</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,13 +5237,13 @@
         <v>40178</v>
       </c>
       <c r="B121">
-        <v>0.37</v>
-      </c>
-      <c r="C121">
-        <v>0.35</v>
-      </c>
-      <c r="D121">
-        <v>20100113</v>
+        <v>4.18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +5251,13 @@
         <v>40209</v>
       </c>
       <c r="B122">
-        <v>0.75</v>
-      </c>
-      <c r="C122">
-        <v>0.7</v>
-      </c>
-      <c r="D122">
-        <v>20100205</v>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,13 +5265,13 @@
         <v>40237</v>
       </c>
       <c r="B123">
-        <v>0.78</v>
-      </c>
-      <c r="C123">
-        <v>0.81</v>
-      </c>
-      <c r="D123">
-        <v>20100305</v>
+        <v>4.63</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,13 +5279,13 @@
         <v>40268</v>
       </c>
       <c r="B124">
-        <v>0.52</v>
-      </c>
-      <c r="C124">
-        <v>0.5</v>
-      </c>
-      <c r="D124">
-        <v>20100408</v>
+        <v>5.09</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,13 +5293,13 @@
         <v>40298</v>
       </c>
       <c r="B125">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C125">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D125">
-        <v>20100507</v>
+        <v>5.22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,13 +5307,13 @@
         <v>40329</v>
       </c>
       <c r="B126">
-        <v>0.43</v>
-      </c>
-      <c r="C126">
-        <v>0.43</v>
-      </c>
-      <c r="D126">
-        <v>20100609</v>
+        <v>5.26</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,13 +5321,13 @@
         <v>40359</v>
       </c>
       <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>0.11</v>
-      </c>
-      <c r="D127">
-        <v>20100707</v>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,13 +5335,13 @@
         <v>40390</v>
       </c>
       <c r="B128">
-        <v>0.01</v>
-      </c>
-      <c r="C128">
-        <v>0.02</v>
-      </c>
-      <c r="D128">
-        <v>20100806</v>
+        <v>4.74</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,13 +5349,13 @@
         <v>40421</v>
       </c>
       <c r="B129">
-        <v>0.04</v>
-      </c>
-      <c r="C129">
-        <v>0.08</v>
-      </c>
-      <c r="D129">
-        <v>20100909</v>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,13 +5363,13 @@
         <v>40451</v>
       </c>
       <c r="B130">
-        <v>0.45</v>
-      </c>
-      <c r="C130">
-        <v>0.46</v>
-      </c>
-      <c r="D130">
-        <v>20101007</v>
+        <v>4.57</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,13 +5377,13 @@
         <v>40482</v>
       </c>
       <c r="B131">
-        <v>0.75</v>
-      </c>
-      <c r="C131">
-        <v>0.67</v>
-      </c>
-      <c r="D131">
-        <v>20101109</v>
+        <v>5.03</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2223,13 +5391,13 @@
         <v>40512</v>
       </c>
       <c r="B132">
-        <v>0.83</v>
-      </c>
-      <c r="C132">
-        <v>0.87</v>
-      </c>
-      <c r="D132">
-        <v>20101208</v>
+        <v>5.47</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,13 +5405,13 @@
         <v>40543</v>
       </c>
       <c r="B133">
-        <v>0.63</v>
-      </c>
-      <c r="C133">
-        <v>0.6</v>
-      </c>
-      <c r="D133">
-        <v>20110107</v>
+        <v>5.79</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,13 +5419,13 @@
         <v>40574</v>
       </c>
       <c r="B134">
-        <v>0.83</v>
-      </c>
-      <c r="C134">
-        <v>0.81</v>
-      </c>
-      <c r="D134">
-        <v>20110208</v>
+        <v>6.04</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,13 +5433,13 @@
         <v>40602</v>
       </c>
       <c r="B135">
-        <v>0.8</v>
-      </c>
-      <c r="C135">
-        <v>0.84</v>
-      </c>
-      <c r="D135">
-        <v>20110304</v>
+        <v>6.08</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,13 +5447,13 @@
         <v>40633</v>
       </c>
       <c r="B136">
-        <v>0.79</v>
-      </c>
-      <c r="C136">
-        <v>0.7</v>
-      </c>
-      <c r="D136">
-        <v>20110407</v>
+        <v>6.13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,13 +5461,13 @@
         <v>40663</v>
       </c>
       <c r="B137">
-        <v>0.77</v>
-      </c>
-      <c r="C137">
-        <v>0.85</v>
-      </c>
-      <c r="D137">
-        <v>20110506</v>
+        <v>6.44</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,13 +5475,13 @@
         <v>40694</v>
       </c>
       <c r="B138">
-        <v>0.47</v>
-      </c>
-      <c r="C138">
-        <v>0.47</v>
-      </c>
-      <c r="D138">
-        <v>20110607</v>
+        <v>6.51</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,13 +5489,13 @@
         <v>40724</v>
       </c>
       <c r="B139">
-        <v>0.15</v>
-      </c>
-      <c r="C139">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D139">
-        <v>20110707</v>
+        <v>6.55</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,13 +5503,13 @@
         <v>40755</v>
       </c>
       <c r="B140">
-        <v>0.16</v>
-      </c>
-      <c r="C140">
-        <v>0.18</v>
-      </c>
-      <c r="D140">
-        <v>20110805</v>
+        <v>6.75</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,13 +5517,13 @@
         <v>40786</v>
       </c>
       <c r="B141">
-        <v>0.37</v>
-      </c>
-      <c r="C141">
-        <v>0.36</v>
-      </c>
-      <c r="D141">
-        <v>20110906</v>
+        <v>7.1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,13 +5531,13 @@
         <v>40816</v>
       </c>
       <c r="B142">
-        <v>0.53</v>
-      </c>
-      <c r="C142">
-        <v>0.54</v>
-      </c>
-      <c r="D142">
-        <v>20111007</v>
+        <v>7.33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,13 +5545,13 @@
         <v>40847</v>
       </c>
       <c r="B143">
-        <v>0.43</v>
-      </c>
-      <c r="C143">
-        <v>0.42</v>
-      </c>
-      <c r="D143">
-        <v>20111110</v>
+        <v>7.12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,13 +5559,13 @@
         <v>40877</v>
       </c>
       <c r="B144">
-        <v>0.52</v>
-      </c>
-      <c r="C144">
-        <v>0.5</v>
-      </c>
-      <c r="D144">
-        <v>20111208</v>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,13 +5573,13 @@
         <v>40908</v>
       </c>
       <c r="B145">
-        <v>0.5</v>
-      </c>
-      <c r="C145">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D145">
-        <v>20120106</v>
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,13 +5587,13 @@
         <v>40939</v>
       </c>
       <c r="B146">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C146">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D146">
-        <v>20120210</v>
+        <v>6.44</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,13 +5601,13 @@
         <v>40968</v>
       </c>
       <c r="B147">
-        <v>0.45</v>
-      </c>
-      <c r="C147">
-        <v>0.45</v>
-      </c>
-      <c r="D147">
-        <v>20120309</v>
+        <v>5.98</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,13 +5615,13 @@
         <v>40999</v>
       </c>
       <c r="B148">
-        <v>0.21</v>
-      </c>
-      <c r="C148">
-        <v>0.37</v>
-      </c>
-      <c r="D148">
-        <v>20120405</v>
+        <v>5.61</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,13 +5629,13 @@
         <v>41029</v>
       </c>
       <c r="B149">
-        <v>0.64</v>
-      </c>
-      <c r="C149">
-        <v>0.59</v>
-      </c>
-      <c r="D149">
-        <v>20120509</v>
+        <v>5.25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,13 +5643,13 @@
         <v>41060</v>
       </c>
       <c r="B150">
-        <v>0.36</v>
-      </c>
-      <c r="C150">
-        <v>0.43</v>
-      </c>
-      <c r="D150">
-        <v>20120606</v>
+        <v>5.05</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +5657,13 @@
         <v>41090</v>
       </c>
       <c r="B151">
-        <v>0.08</v>
-      </c>
-      <c r="C151">
-        <v>0.13</v>
-      </c>
-      <c r="D151">
-        <v>20120706</v>
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +5671,13 @@
         <v>41121</v>
       </c>
       <c r="B152">
-        <v>0.43</v>
-      </c>
-      <c r="C152">
-        <v>0.37</v>
-      </c>
-      <c r="D152">
-        <v>20120808</v>
+        <v>5.24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +5685,13 @@
         <v>41152</v>
       </c>
       <c r="B153">
-        <v>0.41</v>
-      </c>
-      <c r="C153">
-        <v>0.4</v>
-      </c>
-      <c r="D153">
-        <v>20120905</v>
+        <v>5.35</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,13 +5699,13 @@
         <v>41182</v>
       </c>
       <c r="B154">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C154">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D154">
-        <v>20121005</v>
+        <v>5.31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,13 +5713,13 @@
         <v>41213</v>
       </c>
       <c r="B155">
-        <v>0.59</v>
-      </c>
-      <c r="C155">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D155">
-        <v>20121107</v>
+        <v>5.5600000000000005</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,13 +5727,13 @@
         <v>41243</v>
       </c>
       <c r="B156">
-        <v>0.6</v>
-      </c>
-      <c r="C156">
-        <v>0.5</v>
-      </c>
-      <c r="D156">
-        <v>20121207</v>
+        <v>5.64</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,13 +5741,13 @@
         <v>41274</v>
       </c>
       <c r="B157">
-        <v>0.79</v>
-      </c>
-      <c r="C157">
-        <v>0.74</v>
-      </c>
-      <c r="D157">
-        <v>20130110</v>
+        <v>5.78</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,13 +5755,13 @@
         <v>41305</v>
       </c>
       <c r="B158">
-        <v>0.86</v>
-      </c>
-      <c r="C158">
-        <v>0.83</v>
-      </c>
-      <c r="D158">
-        <v>20130207</v>
+        <v>6.02</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,13 +5769,13 @@
         <v>41333</v>
       </c>
       <c r="B159">
-        <v>0.6</v>
-      </c>
-      <c r="C159">
-        <v>0.49</v>
-      </c>
-      <c r="D159">
-        <v>20130308</v>
+        <v>6.18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,13 +5783,13 @@
         <v>41364</v>
       </c>
       <c r="B160">
-        <v>0.47</v>
-      </c>
-      <c r="C160">
-        <v>0.5</v>
-      </c>
-      <c r="D160">
-        <v>20130410</v>
+        <v>6.43</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +5797,13 @@
         <v>41394</v>
       </c>
       <c r="B161">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C161">
-        <v>0.48</v>
+        <v>6.51</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
       </c>
       <c r="D161">
-        <v>20130508</v>
+        <v>20130419</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,13 +5811,13 @@
         <v>41425</v>
       </c>
       <c r="B162">
-        <v>0.37</v>
-      </c>
-      <c r="C162">
-        <v>0.38</v>
+        <v>6.46</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
       </c>
       <c r="D162">
-        <v>20130607</v>
+        <v>20130522</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,13 +5825,13 @@
         <v>41455</v>
       </c>
       <c r="B163">
-        <v>0.26</v>
-      </c>
-      <c r="C163">
-        <v>0.33</v>
+        <v>6.67</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
       </c>
       <c r="D163">
-        <v>20130705</v>
+        <v>20130621</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +5839,13 @@
         <v>41486</v>
       </c>
       <c r="B164">
-        <v>0.03</v>
+        <v>6.4</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>6.44</v>
       </c>
       <c r="D164">
-        <v>20130807</v>
+        <v>20130719</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,13 +5853,13 @@
         <v>41517</v>
       </c>
       <c r="B165">
-        <v>0.24</v>
+        <v>6.15</v>
       </c>
       <c r="C165">
-        <v>0.25</v>
+        <v>6.14</v>
       </c>
       <c r="D165">
-        <v>20130906</v>
+        <v>20130821</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,13 +5867,13 @@
         <v>41547</v>
       </c>
       <c r="B166">
-        <v>0.35</v>
+        <v>5.93</v>
       </c>
       <c r="C166">
-        <v>0.35</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="D166">
-        <v>20131009</v>
+        <v>20130920</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,13 +5881,13 @@
         <v>41578</v>
       </c>
       <c r="B167">
-        <v>0.56999999999999995</v>
+        <v>5.75</v>
       </c>
       <c r="C167">
-        <v>0.6</v>
+        <v>5.6899999999999995</v>
       </c>
       <c r="D167">
-        <v>20131107</v>
+        <v>20131018</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,13 +5895,13 @@
         <v>41608</v>
       </c>
       <c r="B168">
-        <v>0.54</v>
+        <v>5.78</v>
       </c>
       <c r="C168">
-        <v>0.57999999999999996</v>
+        <v>5.87</v>
       </c>
       <c r="D168">
-        <v>20131206</v>
+        <v>20131119</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,13 +5909,13 @@
         <v>41639</v>
       </c>
       <c r="B169">
-        <v>0.92</v>
+        <v>5.85</v>
       </c>
       <c r="C169">
-        <v>0.82</v>
+        <v>5.74</v>
       </c>
       <c r="D169">
-        <v>20140110</v>
+        <v>20131219</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,13 +5923,13 @@
         <v>41670</v>
       </c>
       <c r="B170">
-        <v>0.55000000000000004</v>
+        <v>5.63</v>
       </c>
       <c r="C170">
-        <v>0.61</v>
+        <v>5.76</v>
       </c>
       <c r="D170">
-        <v>20140207</v>
+        <v>20140123</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,13 +5937,13 @@
         <v>41698</v>
       </c>
       <c r="B171">
-        <v>0.69</v>
+        <v>5.65</v>
       </c>
       <c r="C171">
-        <v>0.65</v>
+        <v>5.62</v>
       </c>
       <c r="D171">
-        <v>20140312</v>
+        <v>20140221</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,13 +5951,13 @@
         <v>41729</v>
       </c>
       <c r="B172">
-        <v>0.92</v>
+        <v>5.9</v>
       </c>
       <c r="C172">
-        <v>0.85</v>
+        <v>5.91</v>
       </c>
       <c r="D172">
-        <v>20140409</v>
+        <v>20140321</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,13 +5965,13 @@
         <v>41759</v>
       </c>
       <c r="B173">
-        <v>0.67</v>
+        <v>6.19</v>
       </c>
       <c r="C173">
-        <v>0.79</v>
+        <v>6.26</v>
       </c>
       <c r="D173">
-        <v>20140509</v>
+        <v>20140417</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,13 +5979,13 @@
         <v>41790</v>
       </c>
       <c r="B174">
-        <v>0.46</v>
+        <v>6.31</v>
       </c>
       <c r="C174">
-        <v>0.38</v>
+        <v>6.29</v>
       </c>
       <c r="D174">
-        <v>20140606</v>
+        <v>20140521</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -2825,13 +5993,13 @@
         <v>41820</v>
       </c>
       <c r="B175">
-        <v>0.4</v>
+        <v>6.41</v>
       </c>
       <c r="C175">
-        <v>0.39</v>
+        <v>6.35</v>
       </c>
       <c r="D175">
-        <v>20140708</v>
+        <v>20140618</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,13 +6007,13 @@
         <v>41851</v>
       </c>
       <c r="B176">
-        <v>0.01</v>
+        <v>6.51</v>
       </c>
       <c r="C176">
-        <v>0.1</v>
+        <v>6.5600000000000005</v>
       </c>
       <c r="D176">
-        <v>20140808</v>
+        <v>20140722</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,13 +6021,13 @@
         <v>41882</v>
       </c>
       <c r="B177">
-        <v>0.25</v>
+        <v>6.49</v>
       </c>
       <c r="C177">
-        <v>0.25</v>
+        <v>6.48</v>
       </c>
       <c r="D177">
-        <v>20140905</v>
+        <v>20140820</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,13 +6035,13 @@
         <v>41912</v>
       </c>
       <c r="B178">
-        <v>0.56999999999999995</v>
+        <v>6.62</v>
       </c>
       <c r="C178">
-        <v>0.48</v>
+        <v>6.58</v>
       </c>
       <c r="D178">
-        <v>20141008</v>
+        <v>20140919</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,13 +6049,13 @@
         <v>41943</v>
       </c>
       <c r="B179">
-        <v>0.42</v>
+        <v>6.62</v>
       </c>
       <c r="C179">
-        <v>0.48</v>
+        <v>6.66</v>
       </c>
       <c r="D179">
-        <v>20141107</v>
+        <v>20141021</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,13 +6063,13 @@
         <v>41973</v>
       </c>
       <c r="B180">
-        <v>0.51</v>
+        <v>6.42</v>
       </c>
       <c r="C180">
-        <v>0.54</v>
+        <v>6.54</v>
       </c>
       <c r="D180">
-        <v>20141205</v>
+        <v>20141119</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,13 +6077,13 @@
         <v>42004</v>
       </c>
       <c r="B181">
-        <v>0.78</v>
+        <v>6.46</v>
       </c>
       <c r="C181">
-        <v>0.78</v>
+        <v>6.43</v>
       </c>
       <c r="D181">
-        <v>20150109</v>
+        <v>20141219</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,13 +6091,13 @@
         <v>42035</v>
       </c>
       <c r="B182">
-        <v>1.24</v>
+        <v>6.6899999999999995</v>
       </c>
       <c r="C182">
-        <v>1.25</v>
+        <v>6.68</v>
       </c>
       <c r="D182">
-        <v>20150206</v>
+        <v>20150123</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,13 +6105,13 @@
         <v>42063</v>
       </c>
       <c r="B183">
-        <v>1.22</v>
+        <v>7.36</v>
       </c>
       <c r="C183">
-        <v>1.08</v>
+        <v>7.33</v>
       </c>
       <c r="D183">
-        <v>20150306</v>
+        <v>20150224</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,13 +6119,13 @@
         <v>42094</v>
       </c>
       <c r="B184">
-        <v>1.32</v>
+        <v>7.9</v>
       </c>
       <c r="C184">
-        <v>1.3900000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="D184">
-        <v>20150408</v>
+        <v>20150320</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,13 +6133,13 @@
         <v>42124</v>
       </c>
       <c r="B185">
-        <v>0.71</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="C185">
-        <v>0.75</v>
+        <v>8.17</v>
       </c>
       <c r="D185">
-        <v>20150508</v>
+        <v>20150417</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,13 +6147,13 @@
         <v>42155</v>
       </c>
       <c r="B186">
-        <v>0.74</v>
+        <v>8.24</v>
       </c>
       <c r="C186">
-        <v>0.59</v>
+        <v>8.23</v>
       </c>
       <c r="D186">
-        <v>20150610</v>
+        <v>20150522</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,13 +6161,13 @@
         <v>42185</v>
       </c>
       <c r="B187">
-        <v>0.79</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C187">
-        <v>0.82</v>
+        <v>8.64</v>
       </c>
       <c r="D187">
-        <v>20150708</v>
+        <v>20150619</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,13 +6175,13 @@
         <v>42216</v>
       </c>
       <c r="B188">
-        <v>0.62</v>
+        <v>9.25</v>
       </c>
       <c r="C188">
-        <v>0.6</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="D188">
-        <v>20150807</v>
+        <v>20150722</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,13 +6189,13 @@
         <v>42247</v>
       </c>
       <c r="B189">
-        <v>0.22</v>
+        <v>9.57</v>
       </c>
       <c r="C189">
-        <v>0.23</v>
+        <v>9.57</v>
       </c>
       <c r="D189">
-        <v>20150910</v>
+        <v>20150821</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3035,13 +6203,13 @@
         <v>42277</v>
       </c>
       <c r="B190">
-        <v>0.54</v>
+        <v>9.57</v>
       </c>
       <c r="C190">
-        <v>0.52</v>
+        <v>9.56</v>
       </c>
       <c r="D190">
-        <v>20151007</v>
+        <v>20150922</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,13 +6217,13 @@
         <v>42308</v>
       </c>
       <c r="B191">
-        <v>0.82</v>
+        <v>9.77</v>
       </c>
       <c r="C191">
-        <v>0.8</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="D191">
-        <v>20151106</v>
+        <v>20151021</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3063,13 +6231,13 @@
         <v>42338</v>
       </c>
       <c r="B192">
-        <v>1.01</v>
+        <v>10.28</v>
       </c>
       <c r="C192">
-        <v>0.95</v>
+        <v>10.29</v>
       </c>
       <c r="D192">
-        <v>20151209</v>
+        <v>20151119</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,13 +6245,13 @@
         <v>42369</v>
       </c>
       <c r="B193">
-        <v>0.96</v>
+        <v>10.71</v>
       </c>
       <c r="C193">
-        <v>1.05</v>
+        <v>10.65</v>
       </c>
       <c r="D193">
-        <v>20160108</v>
+        <v>20151218</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,13 +6259,13 @@
         <v>42400</v>
       </c>
       <c r="B194">
-        <v>1.27</v>
+        <v>10.74</v>
       </c>
       <c r="C194">
-        <v>1.1000000000000001</v>
+        <v>10.74</v>
       </c>
       <c r="D194">
-        <v>20160205</v>
+        <v>20160122</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,13 +6273,13 @@
         <v>42429</v>
       </c>
       <c r="B195">
-        <v>0.9</v>
+        <v>10.84</v>
       </c>
       <c r="C195">
-        <v>0.98</v>
+        <v>10.73</v>
       </c>
       <c r="D195">
-        <v>20160309</v>
+        <v>20160223</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3119,13 +6287,13 @@
         <v>42460</v>
       </c>
       <c r="B196">
-        <v>0.43</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="C196">
-        <v>0.46</v>
+        <v>10.08</v>
       </c>
       <c r="D196">
-        <v>20160408</v>
+        <v>20160323</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3133,13 +6301,13 @@
         <v>42490</v>
       </c>
       <c r="B197">
-        <v>0.61</v>
+        <v>9.34</v>
       </c>
       <c r="C197">
-        <v>0.54</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D197">
-        <v>20160506</v>
+        <v>20160420</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,13 +6315,13 @@
         <v>42521</v>
       </c>
       <c r="B198">
-        <v>0.78</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="C198">
-        <v>0.75</v>
+        <v>9.51</v>
       </c>
       <c r="D198">
-        <v>20160608</v>
+        <v>20160520</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3161,13 +6329,13 @@
         <v>42551</v>
       </c>
       <c r="B199">
-        <v>0.35</v>
+        <v>8.98</v>
       </c>
       <c r="C199">
-        <v>0.37</v>
+        <v>9.1</v>
       </c>
       <c r="D199">
-        <v>20160708</v>
+        <v>20160621</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,13 +6343,13 @@
         <v>42582</v>
       </c>
       <c r="B200">
-        <v>0.52</v>
+        <v>8.93</v>
       </c>
       <c r="C200">
-        <v>0.45</v>
+        <v>8.83</v>
       </c>
       <c r="D200">
-        <v>20160810</v>
+        <v>20160721</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3189,13 +6357,13 @@
         <v>42613</v>
       </c>
       <c r="B201">
-        <v>0.44</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="C201">
-        <v>0.44</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="D201">
-        <v>20160909</v>
+        <v>20160824</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3203,13 +6371,13 @@
         <v>42643</v>
       </c>
       <c r="B202">
-        <v>0.08</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="C202">
-        <v>0.18</v>
+        <v>8.9</v>
       </c>
       <c r="D202">
-        <v>20161007</v>
+        <v>20160922</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3217,13 +6385,13 @@
         <v>42674</v>
       </c>
       <c r="B203">
-        <v>0.26</v>
+        <v>8.27</v>
       </c>
       <c r="C203">
-        <v>0.28999999999999998</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D203">
-        <v>20161109</v>
+        <v>20161021</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3231,13 +6399,13 @@
         <v>42704</v>
       </c>
       <c r="B204">
-        <v>0.18</v>
+        <v>7.64</v>
       </c>
       <c r="C204">
-        <v>0.27</v>
+        <v>7.67</v>
       </c>
       <c r="D204">
-        <v>20161209</v>
+        <v>20161123</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,13 +6413,13 @@
         <v>42735</v>
       </c>
       <c r="B205">
-        <v>0.3</v>
+        <v>6.58</v>
       </c>
       <c r="C205">
-        <v>0.34</v>
+        <v>6.6899999999999995</v>
       </c>
       <c r="D205">
-        <v>20170111</v>
+        <v>20161221</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,13 +6427,13 @@
         <v>42766</v>
       </c>
       <c r="B206">
-        <v>0.38</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="C206">
-        <v>0.42</v>
+        <v>6.01</v>
       </c>
       <c r="D206">
-        <v>20170208</v>
+        <v>20170119</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,13 +6441,13 @@
         <v>42794</v>
       </c>
       <c r="B207">
-        <v>0.33</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="C207">
-        <v>0.43</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D207">
-        <v>20170310</v>
+        <v>20170222</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,13 +6455,13 @@
         <v>42825</v>
       </c>
       <c r="B208">
-        <v>0.25</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C208">
-        <v>0.25</v>
+        <v>4.72</v>
       </c>
       <c r="D208">
-        <v>20170407</v>
+        <v>20170322</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,13 +6469,13 @@
         <v>42855</v>
       </c>
       <c r="B209">
-        <v>0.14000000000000001</v>
+        <v>4.41</v>
       </c>
       <c r="C209">
-        <v>0.15</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="D209">
-        <v>20170510</v>
+        <v>20170420</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,13 +6483,13 @@
         <v>42886</v>
       </c>
       <c r="B210">
-        <v>0.31</v>
+        <v>3.77</v>
       </c>
       <c r="C210">
-        <v>0.47</v>
+        <v>3.73</v>
       </c>
       <c r="D210">
-        <v>20170609</v>
+        <v>20170523</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,13 +6497,13 @@
         <v>42916</v>
       </c>
       <c r="B211">
-        <v>-0.23</v>
+        <v>3.52</v>
       </c>
       <c r="C211">
-        <v>-0.19</v>
+        <v>3.48</v>
       </c>
       <c r="D211">
-        <v>20170707</v>
+        <v>20170623</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,13 +6511,13 @@
         <v>42947</v>
       </c>
       <c r="B212">
-        <v>0.24</v>
+        <v>2.7800000000000002</v>
       </c>
       <c r="C212">
-        <v>0.18</v>
+        <v>2.87</v>
       </c>
       <c r="D212">
-        <v>20170809</v>
+        <v>20170720</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3357,13 +6525,13 @@
         <v>42978</v>
       </c>
       <c r="B213">
-        <v>0.19</v>
+        <v>2.68</v>
       </c>
       <c r="C213">
-        <v>0.3</v>
+        <v>2.73</v>
       </c>
       <c r="D213">
-        <v>20170906</v>
+        <v>20170823</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,13 +6539,13 @@
         <v>43008</v>
       </c>
       <c r="B214">
-        <v>0.16</v>
+        <v>2.56</v>
       </c>
       <c r="C214">
-        <v>0.09</v>
+        <v>2.59</v>
       </c>
       <c r="D214">
-        <v>20171006</v>
+        <v>20170921</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3385,13 +6553,13 @@
         <v>43039</v>
       </c>
       <c r="B215">
-        <v>0.42</v>
+        <v>2.71</v>
       </c>
       <c r="C215">
-        <v>0.49</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="D215">
-        <v>20171110</v>
+        <v>20171020</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,13 +6567,13 @@
         <v>43069</v>
       </c>
       <c r="B216">
-        <v>0.28000000000000003</v>
+        <v>2.77</v>
       </c>
       <c r="C216">
-        <v>0.35</v>
+        <v>2.83</v>
       </c>
       <c r="D216">
-        <v>20171208</v>
+        <v>20171123</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,13 +6581,13 @@
         <v>43100</v>
       </c>
       <c r="B217">
-        <v>0.44</v>
+        <v>2.94</v>
       </c>
       <c r="C217">
-        <v>0.3</v>
+        <v>2.94</v>
       </c>
       <c r="D217">
-        <v>20180110</v>
+        <v>20171221</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,13 +6595,13 @@
         <v>43131</v>
       </c>
       <c r="B218">
-        <v>0.28999999999999998</v>
+        <v>3.02</v>
       </c>
       <c r="C218">
-        <v>0.41</v>
+        <v>3.05</v>
       </c>
       <c r="D218">
-        <v>20180208</v>
+        <v>20180123</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,11 +6611,11 @@
       <c r="B219" t="s">
         <v>4</v>
       </c>
-      <c r="C219" t="s">
-        <v>4</v>
+      <c r="C219">
+        <v>2.87</v>
       </c>
       <c r="D219">
-        <v>20180309</v>
+        <v>20180223</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +6623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B734"/>
   <sheetViews>
@@ -3475,9 +6643,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="e">
-        <f ca="1">_xll.BDH($A$1,$B$1,"1/1/2000","","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cd","DtFmt=D","UseDPDF=Y","CshAdjNormal=N","CshAdjAbnormal=N","CapChg=N","cols=2;rows=733")</f>
-        <v>#NAME?</v>
+      <c r="A2" s="1">
+        <f>_xll.BDH($A$1,$B$1,"1/1/2000","","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cd","DtFmt=D","UseDPDF=Y","CshAdjNormal=N","CshAdjAbnormal=N","CapChg=N","cols=2;rows=733")</f>
+        <v>42065</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -9336,7 +12504,7 @@
         <v>43147</v>
       </c>
       <c r="B734">
-        <v>2.88</v>
+        <v>2.83</v>
       </c>
     </row>
   </sheetData>
